--- a/processed_data/trials_cleaned/POCD.Northwestern.trial.data.xlsx
+++ b/processed_data/trials_cleaned/POCD.Northwestern.trial.data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\mb1-analysis-master\mb1-analysis-master\processed_data\trials_cleaned\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mcfrank/Projects/manybabies/mb1-analysis-public/processed_data/trials_cleaned/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F426FA6B-4ACE-BD48-84E7-3C80726032FA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="0" windowWidth="25455" windowHeight="13335" tabRatio="500"/>
+    <workbookView xWindow="2180" yWindow="460" windowWidth="25460" windowHeight="13340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -269,7 +270,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -341,7 +342,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -351,6 +352,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -697,22 +699,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J595"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A561" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A595"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="8"/>
-    <col min="2" max="5" width="10.875" style="2"/>
-    <col min="6" max="7" width="10.875" style="6"/>
-    <col min="8" max="16384" width="10.875" style="2"/>
+    <col min="1" max="1" width="10.83203125" style="8"/>
+    <col min="2" max="5" width="10.83203125" style="2"/>
+    <col min="6" max="7" width="10.83203125" style="6"/>
+    <col min="8" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -744,7 +746,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>79</v>
       </c>
@@ -776,7 +778,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>79</v>
       </c>
@@ -808,7 +810,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>79</v>
       </c>
@@ -840,7 +842,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>79</v>
       </c>
@@ -872,7 +874,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>79</v>
       </c>
@@ -904,7 +906,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>79</v>
       </c>
@@ -936,7 +938,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>79</v>
       </c>
@@ -968,7 +970,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>79</v>
       </c>
@@ -1000,7 +1002,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>79</v>
       </c>
@@ -1032,7 +1034,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>79</v>
       </c>
@@ -1064,7 +1066,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>79</v>
       </c>
@@ -1096,7 +1098,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>79</v>
       </c>
@@ -1128,7 +1130,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>79</v>
       </c>
@@ -1160,7 +1162,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>79</v>
       </c>
@@ -1192,7 +1194,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>79</v>
       </c>
@@ -1224,7 +1226,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>79</v>
       </c>
@@ -1256,7 +1258,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>79</v>
       </c>
@@ -1288,7 +1290,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>79</v>
       </c>
@@ -1320,7 +1322,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>79</v>
       </c>
@@ -1352,7 +1354,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>79</v>
       </c>
@@ -1384,7 +1386,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>79</v>
       </c>
@@ -1416,7 +1418,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>79</v>
       </c>
@@ -1448,7 +1450,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>79</v>
       </c>
@@ -1480,7 +1482,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>79</v>
       </c>
@@ -1512,7 +1514,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>79</v>
       </c>
@@ -1544,7 +1546,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>79</v>
       </c>
@@ -1576,7 +1578,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>79</v>
       </c>
@@ -1608,7 +1610,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>79</v>
       </c>
@@ -1640,7 +1642,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>79</v>
       </c>
@@ -1672,7 +1674,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>79</v>
       </c>
@@ -1704,7 +1706,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>79</v>
       </c>
@@ -1736,7 +1738,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>79</v>
       </c>
@@ -1768,7 +1770,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>79</v>
       </c>
@@ -1800,7 +1802,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>79</v>
       </c>
@@ -1832,7 +1834,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>79</v>
       </c>
@@ -1864,7 +1866,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>79</v>
       </c>
@@ -1896,7 +1898,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>79</v>
       </c>
@@ -1928,7 +1930,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>79</v>
       </c>
@@ -1960,7 +1962,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>79</v>
       </c>
@@ -1992,7 +1994,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>79</v>
       </c>
@@ -2024,7 +2026,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>79</v>
       </c>
@@ -2056,7 +2058,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>79</v>
       </c>
@@ -2088,7 +2090,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>79</v>
       </c>
@@ -2120,7 +2122,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>79</v>
       </c>
@@ -2152,7 +2154,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>79</v>
       </c>
@@ -2184,7 +2186,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>79</v>
       </c>
@@ -2216,7 +2218,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>79</v>
       </c>
@@ -2248,7 +2250,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>79</v>
       </c>
@@ -2280,7 +2282,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>79</v>
       </c>
@@ -2312,7 +2314,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>79</v>
       </c>
@@ -2344,7 +2346,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>79</v>
       </c>
@@ -2376,7 +2378,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>79</v>
       </c>
@@ -2408,7 +2410,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>79</v>
       </c>
@@ -2440,7 +2442,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>79</v>
       </c>
@@ -2472,7 +2474,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>79</v>
       </c>
@@ -2504,7 +2506,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>79</v>
       </c>
@@ -2536,7 +2538,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>79</v>
       </c>
@@ -2568,7 +2570,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>79</v>
       </c>
@@ -2600,7 +2602,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>79</v>
       </c>
@@ -2632,7 +2634,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>79</v>
       </c>
@@ -2664,7 +2666,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>79</v>
       </c>
@@ -2696,7 +2698,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>79</v>
       </c>
@@ -2728,7 +2730,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>79</v>
       </c>
@@ -2760,7 +2762,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>79</v>
       </c>
@@ -2792,7 +2794,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>79</v>
       </c>
@@ -2824,7 +2826,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>79</v>
       </c>
@@ -2856,7 +2858,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>79</v>
       </c>
@@ -2888,7 +2890,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
         <v>79</v>
       </c>
@@ -2920,7 +2922,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>79</v>
       </c>
@@ -2952,7 +2954,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>79</v>
       </c>
@@ -2966,7 +2968,7 @@
         <v>32</v>
       </c>
       <c r="E71" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F71" s="6">
         <v>9.7710900000000009</v>
@@ -2984,7 +2986,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
         <v>79</v>
       </c>
@@ -2997,8 +2999,8 @@
       <c r="D72" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E72" s="2">
-        <v>18</v>
+      <c r="E72" s="9">
+        <v>17</v>
       </c>
       <c r="F72" s="6">
         <v>3.0780799999999999</v>
@@ -3016,7 +3018,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
         <v>79</v>
       </c>
@@ -3030,7 +3032,7 @@
         <v>36</v>
       </c>
       <c r="E73" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F73" s="6">
         <v>4.3629700000000007</v>
@@ -3048,7 +3050,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
         <v>79</v>
       </c>
@@ -3080,7 +3082,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
         <v>79</v>
       </c>
@@ -3112,7 +3114,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
         <v>79</v>
       </c>
@@ -3144,7 +3146,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
         <v>79</v>
       </c>
@@ -3176,7 +3178,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
         <v>79</v>
       </c>
@@ -3208,7 +3210,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
         <v>79</v>
       </c>
@@ -3240,7 +3242,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
         <v>79</v>
       </c>
@@ -3272,7 +3274,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
         <v>79</v>
       </c>
@@ -3304,7 +3306,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
         <v>79</v>
       </c>
@@ -3336,7 +3338,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
         <v>79</v>
       </c>
@@ -3368,7 +3370,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
         <v>79</v>
       </c>
@@ -3400,7 +3402,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
         <v>79</v>
       </c>
@@ -3432,7 +3434,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
         <v>79</v>
       </c>
@@ -3464,7 +3466,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
         <v>79</v>
       </c>
@@ -3496,7 +3498,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
         <v>79</v>
       </c>
@@ -3528,7 +3530,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
         <v>79</v>
       </c>
@@ -3560,7 +3562,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
         <v>79</v>
       </c>
@@ -3592,7 +3594,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
         <v>79</v>
       </c>
@@ -3624,7 +3626,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
         <v>79</v>
       </c>
@@ -3656,7 +3658,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
         <v>79</v>
       </c>
@@ -3688,7 +3690,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
         <v>79</v>
       </c>
@@ -3720,7 +3722,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
         <v>79</v>
       </c>
@@ -3752,7 +3754,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
         <v>79</v>
       </c>
@@ -3784,7 +3786,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
         <v>79</v>
       </c>
@@ -3816,7 +3818,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
         <v>79</v>
       </c>
@@ -3848,7 +3850,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
         <v>79</v>
       </c>
@@ -3880,7 +3882,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
         <v>79</v>
       </c>
@@ -3912,7 +3914,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
         <v>79</v>
       </c>
@@ -3944,7 +3946,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
         <v>79</v>
       </c>
@@ -3976,7 +3978,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
         <v>79</v>
       </c>
@@ -4008,7 +4010,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
         <v>79</v>
       </c>
@@ -4040,7 +4042,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
         <v>79</v>
       </c>
@@ -4072,7 +4074,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
         <v>79</v>
       </c>
@@ -4104,7 +4106,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
         <v>79</v>
       </c>
@@ -4136,7 +4138,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
         <v>79</v>
       </c>
@@ -4168,7 +4170,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
         <v>79</v>
       </c>
@@ -4194,7 +4196,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
         <v>79</v>
       </c>
@@ -4226,7 +4228,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
         <v>79</v>
       </c>
@@ -4258,7 +4260,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
         <v>79</v>
       </c>
@@ -4290,7 +4292,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
         <v>79</v>
       </c>
@@ -4322,7 +4324,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
         <v>79</v>
       </c>
@@ -4354,7 +4356,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
         <v>79</v>
       </c>
@@ -4386,7 +4388,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
         <v>79</v>
       </c>
@@ -4418,7 +4420,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
         <v>79</v>
       </c>
@@ -4450,7 +4452,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
         <v>79</v>
       </c>
@@ -4482,7 +4484,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
         <v>79</v>
       </c>
@@ -4514,7 +4516,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
         <v>79</v>
       </c>
@@ -4546,7 +4548,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
         <v>79</v>
       </c>
@@ -4578,7 +4580,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
         <v>79</v>
       </c>
@@ -4610,7 +4612,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
         <v>79</v>
       </c>
@@ -4642,7 +4644,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
         <v>79</v>
       </c>
@@ -4674,7 +4676,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
         <v>79</v>
       </c>
@@ -4706,7 +4708,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
         <v>79</v>
       </c>
@@ -4738,7 +4740,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
         <v>79</v>
       </c>
@@ -4770,7 +4772,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
         <v>79</v>
       </c>
@@ -4802,7 +4804,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
         <v>79</v>
       </c>
@@ -4834,7 +4836,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="5" t="s">
         <v>79</v>
       </c>
@@ -4866,7 +4868,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="5" t="s">
         <v>79</v>
       </c>
@@ -4898,7 +4900,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="5" t="s">
         <v>79</v>
       </c>
@@ -4930,7 +4932,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="5" t="s">
         <v>79</v>
       </c>
@@ -4962,7 +4964,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="5" t="s">
         <v>79</v>
       </c>
@@ -4994,7 +4996,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
         <v>79</v>
       </c>
@@ -5026,7 +5028,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="5" t="s">
         <v>79</v>
       </c>
@@ -5058,7 +5060,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="5" t="s">
         <v>79</v>
       </c>
@@ -5090,7 +5092,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="5" t="s">
         <v>79</v>
       </c>
@@ -5122,7 +5124,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="5" t="s">
         <v>79</v>
       </c>
@@ -5154,7 +5156,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
         <v>79</v>
       </c>
@@ -5186,7 +5188,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="5" t="s">
         <v>79</v>
       </c>
@@ -5218,7 +5220,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
         <v>79</v>
       </c>
@@ -5250,7 +5252,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="5" t="s">
         <v>79</v>
       </c>
@@ -5282,7 +5284,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="5" t="s">
         <v>79</v>
       </c>
@@ -5314,7 +5316,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
         <v>79</v>
       </c>
@@ -5346,7 +5348,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="5" t="s">
         <v>79</v>
       </c>
@@ -5378,7 +5380,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
         <v>79</v>
       </c>
@@ -5410,7 +5412,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="5" t="s">
         <v>79</v>
       </c>
@@ -5442,7 +5444,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="5" t="s">
         <v>79</v>
       </c>
@@ -5474,7 +5476,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="5" t="s">
         <v>79</v>
       </c>
@@ -5506,7 +5508,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="5" t="s">
         <v>79</v>
       </c>
@@ -5538,7 +5540,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="5" t="s">
         <v>79</v>
       </c>
@@ -5570,7 +5572,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
         <v>79</v>
       </c>
@@ -5602,7 +5604,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="5" t="s">
         <v>79</v>
       </c>
@@ -5634,7 +5636,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="5" t="s">
         <v>79</v>
       </c>
@@ -5666,7 +5668,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="5" t="s">
         <v>79</v>
       </c>
@@ -5698,7 +5700,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="5" t="s">
         <v>79</v>
       </c>
@@ -5730,7 +5732,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="5" t="s">
         <v>79</v>
       </c>
@@ -5762,7 +5764,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" s="5" t="s">
         <v>79</v>
       </c>
@@ -5794,7 +5796,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" s="5" t="s">
         <v>79</v>
       </c>
@@ -5826,7 +5828,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="5" t="s">
         <v>79</v>
       </c>
@@ -5858,7 +5860,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="5" t="s">
         <v>79</v>
       </c>
@@ -5890,7 +5892,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="5" t="s">
         <v>79</v>
       </c>
@@ -5922,7 +5924,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="5" t="s">
         <v>79</v>
       </c>
@@ -5954,7 +5956,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" s="5" t="s">
         <v>79</v>
       </c>
@@ -5986,7 +5988,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" s="5" t="s">
         <v>79</v>
       </c>
@@ -6018,7 +6020,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" s="5" t="s">
         <v>79</v>
       </c>
@@ -6050,7 +6052,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" s="5" t="s">
         <v>79</v>
       </c>
@@ -6082,7 +6084,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" s="5" t="s">
         <v>79</v>
       </c>
@@ -6114,7 +6116,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" s="5" t="s">
         <v>79</v>
       </c>
@@ -6146,7 +6148,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" s="5" t="s">
         <v>79</v>
       </c>
@@ -6178,7 +6180,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" s="5" t="s">
         <v>79</v>
       </c>
@@ -6210,7 +6212,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" s="5" t="s">
         <v>79</v>
       </c>
@@ -6242,7 +6244,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" s="5" t="s">
         <v>79</v>
       </c>
@@ -6274,7 +6276,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" s="5" t="s">
         <v>79</v>
       </c>
@@ -6306,7 +6308,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" s="5" t="s">
         <v>79</v>
       </c>
@@ -6338,7 +6340,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" s="5" t="s">
         <v>79</v>
       </c>
@@ -6370,7 +6372,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" s="5" t="s">
         <v>79</v>
       </c>
@@ -6402,7 +6404,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" s="5" t="s">
         <v>79</v>
       </c>
@@ -6434,7 +6436,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" s="5" t="s">
         <v>79</v>
       </c>
@@ -6466,7 +6468,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" s="5" t="s">
         <v>79</v>
       </c>
@@ -6498,7 +6500,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" s="5" t="s">
         <v>79</v>
       </c>
@@ -6530,7 +6532,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
         <v>79</v>
       </c>
@@ -6562,7 +6564,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" s="5" t="s">
         <v>79</v>
       </c>
@@ -6594,7 +6596,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" s="5" t="s">
         <v>79</v>
       </c>
@@ -6626,7 +6628,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" s="5" t="s">
         <v>79</v>
       </c>
@@ -6658,7 +6660,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" s="5" t="s">
         <v>79</v>
       </c>
@@ -6690,7 +6692,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" s="5" t="s">
         <v>79</v>
       </c>
@@ -6722,7 +6724,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
         <v>79</v>
       </c>
@@ -6754,7 +6756,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" s="5" t="s">
         <v>79</v>
       </c>
@@ -6786,7 +6788,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" s="5" t="s">
         <v>79</v>
       </c>
@@ -6818,7 +6820,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" s="5" t="s">
         <v>79</v>
       </c>
@@ -6850,7 +6852,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" s="5" t="s">
         <v>79</v>
       </c>
@@ -6882,7 +6884,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" s="5" t="s">
         <v>79</v>
       </c>
@@ -6914,7 +6916,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" s="5" t="s">
         <v>79</v>
       </c>
@@ -6946,7 +6948,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" s="5" t="s">
         <v>79</v>
       </c>
@@ -6978,7 +6980,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" s="5" t="s">
         <v>79</v>
       </c>
@@ -7010,7 +7012,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" s="5" t="s">
         <v>79</v>
       </c>
@@ -7042,7 +7044,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" s="5" t="s">
         <v>79</v>
       </c>
@@ -7074,7 +7076,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" s="5" t="s">
         <v>79</v>
       </c>
@@ -7106,7 +7108,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" s="5" t="s">
         <v>79</v>
       </c>
@@ -7138,7 +7140,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" s="5" t="s">
         <v>79</v>
       </c>
@@ -7170,7 +7172,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" s="5" t="s">
         <v>79</v>
       </c>
@@ -7202,7 +7204,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" s="5" t="s">
         <v>79</v>
       </c>
@@ -7234,7 +7236,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" s="5" t="s">
         <v>79</v>
       </c>
@@ -7266,7 +7268,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" s="5" t="s">
         <v>79</v>
       </c>
@@ -7298,7 +7300,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" s="5" t="s">
         <v>79</v>
       </c>
@@ -7330,7 +7332,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" s="5" t="s">
         <v>79</v>
       </c>
@@ -7362,7 +7364,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" s="5" t="s">
         <v>79</v>
       </c>
@@ -7394,7 +7396,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" s="5" t="s">
         <v>79</v>
       </c>
@@ -7426,7 +7428,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" s="5" t="s">
         <v>79</v>
       </c>
@@ -7458,7 +7460,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" s="5" t="s">
         <v>79</v>
       </c>
@@ -7490,7 +7492,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" s="5" t="s">
         <v>79</v>
       </c>
@@ -7522,7 +7524,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" s="5" t="s">
         <v>79</v>
       </c>
@@ -7554,7 +7556,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" s="5" t="s">
         <v>79</v>
       </c>
@@ -7586,7 +7588,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216" s="5" t="s">
         <v>79</v>
       </c>
@@ -7618,7 +7620,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" s="5" t="s">
         <v>79</v>
       </c>
@@ -7650,7 +7652,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" s="5" t="s">
         <v>79</v>
       </c>
@@ -7682,7 +7684,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219" s="5" t="s">
         <v>79</v>
       </c>
@@ -7714,7 +7716,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" s="5" t="s">
         <v>79</v>
       </c>
@@ -7746,7 +7748,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" s="5" t="s">
         <v>79</v>
       </c>
@@ -7778,7 +7780,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222" s="5" t="s">
         <v>79</v>
       </c>
@@ -7810,7 +7812,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" s="5" t="s">
         <v>79</v>
       </c>
@@ -7842,7 +7844,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" s="5" t="s">
         <v>79</v>
       </c>
@@ -7874,7 +7876,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225" s="5" t="s">
         <v>79</v>
       </c>
@@ -7906,7 +7908,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226" s="5" t="s">
         <v>79</v>
       </c>
@@ -7938,7 +7940,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227" s="5" t="s">
         <v>79</v>
       </c>
@@ -7970,7 +7972,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228" s="5" t="s">
         <v>79</v>
       </c>
@@ -8002,7 +8004,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229" s="5" t="s">
         <v>79</v>
       </c>
@@ -8034,7 +8036,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230" s="5" t="s">
         <v>79</v>
       </c>
@@ -8066,7 +8068,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231" s="5" t="s">
         <v>79</v>
       </c>
@@ -8098,7 +8100,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" s="5" t="s">
         <v>79</v>
       </c>
@@ -8130,7 +8132,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" s="5" t="s">
         <v>79</v>
       </c>
@@ -8162,7 +8164,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" s="5" t="s">
         <v>79</v>
       </c>
@@ -8194,7 +8196,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" s="5" t="s">
         <v>79</v>
       </c>
@@ -8226,7 +8228,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" s="5" t="s">
         <v>79</v>
       </c>
@@ -8258,7 +8260,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" s="5" t="s">
         <v>79</v>
       </c>
@@ -8290,7 +8292,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" s="5" t="s">
         <v>79</v>
       </c>
@@ -8322,7 +8324,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" s="5" t="s">
         <v>79</v>
       </c>
@@ -8354,7 +8356,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" s="5" t="s">
         <v>79</v>
       </c>
@@ -8386,7 +8388,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241" s="5" t="s">
         <v>79</v>
       </c>
@@ -8418,7 +8420,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242" s="5" t="s">
         <v>79</v>
       </c>
@@ -8450,7 +8452,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" s="5" t="s">
         <v>79</v>
       </c>
@@ -8482,7 +8484,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244" s="5" t="s">
         <v>79</v>
       </c>
@@ -8514,7 +8516,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245" s="5" t="s">
         <v>79</v>
       </c>
@@ -8546,7 +8548,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246" s="5" t="s">
         <v>79</v>
       </c>
@@ -8578,7 +8580,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" s="5" t="s">
         <v>79</v>
       </c>
@@ -8610,7 +8612,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248" s="5" t="s">
         <v>79</v>
       </c>
@@ -8642,7 +8644,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249" s="5" t="s">
         <v>79</v>
       </c>
@@ -8674,7 +8676,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" s="5" t="s">
         <v>79</v>
       </c>
@@ -8706,7 +8708,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251" s="5" t="s">
         <v>79</v>
       </c>
@@ -8738,7 +8740,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252" s="5" t="s">
         <v>79</v>
       </c>
@@ -8770,7 +8772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253" s="5" t="s">
         <v>79</v>
       </c>
@@ -8802,7 +8804,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254" s="5" t="s">
         <v>79</v>
       </c>
@@ -8834,7 +8836,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255" s="5" t="s">
         <v>79</v>
       </c>
@@ -8866,7 +8868,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256" s="5" t="s">
         <v>79</v>
       </c>
@@ -8898,7 +8900,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257" s="5" t="s">
         <v>79</v>
       </c>
@@ -8930,7 +8932,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258" s="5" t="s">
         <v>79</v>
       </c>
@@ -8962,7 +8964,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259" s="5" t="s">
         <v>79</v>
       </c>
@@ -8994,7 +8996,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260" s="5" t="s">
         <v>79</v>
       </c>
@@ -9026,7 +9028,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261" s="5" t="s">
         <v>79</v>
       </c>
@@ -9058,7 +9060,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262" s="5" t="s">
         <v>79</v>
       </c>
@@ -9090,7 +9092,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263" s="5" t="s">
         <v>79</v>
       </c>
@@ -9122,7 +9124,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264" s="5" t="s">
         <v>79</v>
       </c>
@@ -9154,7 +9156,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265" s="5" t="s">
         <v>79</v>
       </c>
@@ -9186,7 +9188,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266" s="5" t="s">
         <v>79</v>
       </c>
@@ -9218,7 +9220,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267" s="5" t="s">
         <v>79</v>
       </c>
@@ -9250,7 +9252,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268" s="5" t="s">
         <v>79</v>
       </c>
@@ -9282,7 +9284,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269" s="5" t="s">
         <v>79</v>
       </c>
@@ -9314,7 +9316,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270" s="5" t="s">
         <v>79</v>
       </c>
@@ -9346,7 +9348,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271" s="5" t="s">
         <v>79</v>
       </c>
@@ -9378,7 +9380,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272" s="5" t="s">
         <v>79</v>
       </c>
@@ -9410,7 +9412,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273" s="5" t="s">
         <v>79</v>
       </c>
@@ -9442,7 +9444,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274" s="5" t="s">
         <v>79</v>
       </c>
@@ -9474,7 +9476,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275" s="5" t="s">
         <v>79</v>
       </c>
@@ -9506,7 +9508,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276" s="5" t="s">
         <v>79</v>
       </c>
@@ -9538,7 +9540,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277" s="5" t="s">
         <v>79</v>
       </c>
@@ -9570,7 +9572,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278" s="5" t="s">
         <v>79</v>
       </c>
@@ -9602,7 +9604,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279" s="5" t="s">
         <v>79</v>
       </c>
@@ -9634,7 +9636,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280" s="5" t="s">
         <v>79</v>
       </c>
@@ -9666,7 +9668,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281" s="5" t="s">
         <v>79</v>
       </c>
@@ -9698,7 +9700,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282" s="5" t="s">
         <v>79</v>
       </c>
@@ -9730,7 +9732,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283" s="5" t="s">
         <v>79</v>
       </c>
@@ -9762,7 +9764,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284" s="5" t="s">
         <v>79</v>
       </c>
@@ -9794,7 +9796,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285" s="5" t="s">
         <v>79</v>
       </c>
@@ -9826,7 +9828,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286" s="5" t="s">
         <v>79</v>
       </c>
@@ -9858,7 +9860,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287" s="5" t="s">
         <v>79</v>
       </c>
@@ -9890,7 +9892,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A288" s="5" t="s">
         <v>79</v>
       </c>
@@ -9922,7 +9924,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289" s="5" t="s">
         <v>79</v>
       </c>
@@ -9954,7 +9956,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290" s="5" t="s">
         <v>79</v>
       </c>
@@ -9986,7 +9988,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291" s="5" t="s">
         <v>79</v>
       </c>
@@ -10018,7 +10020,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292" s="5" t="s">
         <v>79</v>
       </c>
@@ -10050,7 +10052,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293" s="5" t="s">
         <v>79</v>
       </c>
@@ -10082,7 +10084,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294" s="5" t="s">
         <v>79</v>
       </c>
@@ -10114,7 +10116,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295" s="5" t="s">
         <v>79</v>
       </c>
@@ -10146,7 +10148,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296" s="5" t="s">
         <v>79</v>
       </c>
@@ -10178,7 +10180,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297" s="5" t="s">
         <v>79</v>
       </c>
@@ -10210,7 +10212,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298" s="5" t="s">
         <v>79</v>
       </c>
@@ -10242,7 +10244,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299" s="5" t="s">
         <v>79</v>
       </c>
@@ -10274,7 +10276,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300" s="5" t="s">
         <v>79</v>
       </c>
@@ -10306,7 +10308,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301" s="5" t="s">
         <v>79</v>
       </c>
@@ -10338,7 +10340,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302" s="5" t="s">
         <v>79</v>
       </c>
@@ -10370,7 +10372,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303" s="5" t="s">
         <v>79</v>
       </c>
@@ -10402,7 +10404,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A304" s="5" t="s">
         <v>79</v>
       </c>
@@ -10434,7 +10436,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305" s="5" t="s">
         <v>79</v>
       </c>
@@ -10466,7 +10468,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A306" s="5" t="s">
         <v>79</v>
       </c>
@@ -10498,7 +10500,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307" s="5" t="s">
         <v>79</v>
       </c>
@@ -10530,7 +10532,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A308" s="5" t="s">
         <v>79</v>
       </c>
@@ -10562,7 +10564,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A309" s="5" t="s">
         <v>79</v>
       </c>
@@ -10594,7 +10596,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A310" s="5" t="s">
         <v>79</v>
       </c>
@@ -10626,7 +10628,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A311" s="5" t="s">
         <v>79</v>
       </c>
@@ -10658,7 +10660,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A312" s="5" t="s">
         <v>79</v>
       </c>
@@ -10690,7 +10692,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A313" s="5" t="s">
         <v>79</v>
       </c>
@@ -10722,7 +10724,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A314" s="5" t="s">
         <v>79</v>
       </c>
@@ -10754,7 +10756,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315" s="5" t="s">
         <v>79</v>
       </c>
@@ -10786,7 +10788,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A316" s="5" t="s">
         <v>79</v>
       </c>
@@ -10818,7 +10820,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A317" s="5" t="s">
         <v>79</v>
       </c>
@@ -10850,7 +10852,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A318" s="5" t="s">
         <v>79</v>
       </c>
@@ -10882,7 +10884,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A319" s="5" t="s">
         <v>79</v>
       </c>
@@ -10914,7 +10916,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A320" s="5" t="s">
         <v>79</v>
       </c>
@@ -10946,7 +10948,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A321" s="5" t="s">
         <v>79</v>
       </c>
@@ -10978,7 +10980,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A322" s="5" t="s">
         <v>79</v>
       </c>
@@ -11010,7 +11012,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A323" s="5" t="s">
         <v>79</v>
       </c>
@@ -11042,7 +11044,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A324" s="5" t="s">
         <v>79</v>
       </c>
@@ -11074,7 +11076,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A325" s="5" t="s">
         <v>79</v>
       </c>
@@ -11106,7 +11108,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A326" s="5" t="s">
         <v>79</v>
       </c>
@@ -11138,7 +11140,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A327" s="5" t="s">
         <v>79</v>
       </c>
@@ -11170,7 +11172,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A328" s="5" t="s">
         <v>79</v>
       </c>
@@ -11202,7 +11204,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A329" s="5" t="s">
         <v>79</v>
       </c>
@@ -11234,7 +11236,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A330" s="5" t="s">
         <v>79</v>
       </c>
@@ -11266,7 +11268,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A331" s="5" t="s">
         <v>79</v>
       </c>
@@ -11298,7 +11300,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A332" s="5" t="s">
         <v>79</v>
       </c>
@@ -11330,7 +11332,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A333" s="5" t="s">
         <v>79</v>
       </c>
@@ -11362,7 +11364,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A334" s="5" t="s">
         <v>79</v>
       </c>
@@ -11394,7 +11396,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A335" s="5" t="s">
         <v>79</v>
       </c>
@@ -11426,7 +11428,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A336" s="5" t="s">
         <v>79</v>
       </c>
@@ -11458,7 +11460,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A337" s="5" t="s">
         <v>79</v>
       </c>
@@ -11490,7 +11492,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A338" s="5" t="s">
         <v>79</v>
       </c>
@@ -11522,7 +11524,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A339" s="5" t="s">
         <v>79</v>
       </c>
@@ -11554,7 +11556,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340" s="5" t="s">
         <v>79</v>
       </c>
@@ -11586,7 +11588,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341" s="5" t="s">
         <v>79</v>
       </c>
@@ -11618,7 +11620,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342" s="5" t="s">
         <v>79</v>
       </c>
@@ -11650,7 +11652,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A343" s="5" t="s">
         <v>79</v>
       </c>
@@ -11682,7 +11684,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A344" s="5" t="s">
         <v>79</v>
       </c>
@@ -11714,7 +11716,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A345" s="5" t="s">
         <v>79</v>
       </c>
@@ -11746,7 +11748,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A346" s="5" t="s">
         <v>79</v>
       </c>
@@ -11778,7 +11780,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A347" s="5" t="s">
         <v>79</v>
       </c>
@@ -11810,7 +11812,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A348" s="5" t="s">
         <v>79</v>
       </c>
@@ -11842,7 +11844,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349" s="5" t="s">
         <v>79</v>
       </c>
@@ -11874,7 +11876,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A350" s="5" t="s">
         <v>79</v>
       </c>
@@ -11906,7 +11908,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351" s="5" t="s">
         <v>79</v>
       </c>
@@ -11938,7 +11940,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352" s="5" t="s">
         <v>79</v>
       </c>
@@ -11970,7 +11972,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A353" s="5" t="s">
         <v>79</v>
       </c>
@@ -12002,7 +12004,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A354" s="5" t="s">
         <v>79</v>
       </c>
@@ -12034,7 +12036,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A355" s="5" t="s">
         <v>79</v>
       </c>
@@ -12066,7 +12068,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A356" s="5" t="s">
         <v>79</v>
       </c>
@@ -12098,7 +12100,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A357" s="5" t="s">
         <v>79</v>
       </c>
@@ -12130,7 +12132,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A358" s="5" t="s">
         <v>79</v>
       </c>
@@ -12162,7 +12164,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A359" s="5" t="s">
         <v>79</v>
       </c>
@@ -12194,7 +12196,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A360" s="5" t="s">
         <v>79</v>
       </c>
@@ -12226,7 +12228,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A361" s="5" t="s">
         <v>79</v>
       </c>
@@ -12258,7 +12260,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A362" s="5" t="s">
         <v>79</v>
       </c>
@@ -12290,7 +12292,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A363" s="5" t="s">
         <v>79</v>
       </c>
@@ -12322,7 +12324,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A364" s="5" t="s">
         <v>79</v>
       </c>
@@ -12354,7 +12356,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A365" s="5" t="s">
         <v>79</v>
       </c>
@@ -12386,7 +12388,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A366" s="5" t="s">
         <v>79</v>
       </c>
@@ -12418,7 +12420,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A367" s="5" t="s">
         <v>79</v>
       </c>
@@ -12450,7 +12452,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A368" s="5" t="s">
         <v>79</v>
       </c>
@@ -12482,7 +12484,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A369" s="5" t="s">
         <v>79</v>
       </c>
@@ -12514,7 +12516,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A370" s="5" t="s">
         <v>79</v>
       </c>
@@ -12546,7 +12548,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A371" s="5" t="s">
         <v>79</v>
       </c>
@@ -12578,7 +12580,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A372" s="5" t="s">
         <v>79</v>
       </c>
@@ -12610,7 +12612,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A373" s="5" t="s">
         <v>79</v>
       </c>
@@ -12642,7 +12644,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A374" s="5" t="s">
         <v>79</v>
       </c>
@@ -12674,7 +12676,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A375" s="5" t="s">
         <v>79</v>
       </c>
@@ -12706,7 +12708,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A376" s="5" t="s">
         <v>79</v>
       </c>
@@ -12738,7 +12740,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A377" s="5" t="s">
         <v>79</v>
       </c>
@@ -12770,7 +12772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A378" s="5" t="s">
         <v>79</v>
       </c>
@@ -12802,7 +12804,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A379" s="5" t="s">
         <v>79</v>
       </c>
@@ -12834,7 +12836,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A380" s="5" t="s">
         <v>79</v>
       </c>
@@ -12866,7 +12868,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A381" s="5" t="s">
         <v>79</v>
       </c>
@@ -12898,7 +12900,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A382" s="5" t="s">
         <v>79</v>
       </c>
@@ -12930,7 +12932,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A383" s="5" t="s">
         <v>79</v>
       </c>
@@ -12962,7 +12964,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A384" s="5" t="s">
         <v>79</v>
       </c>
@@ -12994,7 +12996,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A385" s="5" t="s">
         <v>79</v>
       </c>
@@ -13026,7 +13028,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A386" s="5" t="s">
         <v>79</v>
       </c>
@@ -13058,7 +13060,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A387" s="5" t="s">
         <v>79</v>
       </c>
@@ -13090,7 +13092,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A388" s="5" t="s">
         <v>79</v>
       </c>
@@ -13122,7 +13124,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A389" s="5" t="s">
         <v>79</v>
       </c>
@@ -13154,7 +13156,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A390" s="5" t="s">
         <v>79</v>
       </c>
@@ -13186,7 +13188,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A391" s="5" t="s">
         <v>79</v>
       </c>
@@ -13218,7 +13220,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A392" s="5" t="s">
         <v>79</v>
       </c>
@@ -13250,7 +13252,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A393" s="5" t="s">
         <v>79</v>
       </c>
@@ -13282,7 +13284,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A394" s="5" t="s">
         <v>79</v>
       </c>
@@ -13314,7 +13316,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A395" s="5" t="s">
         <v>79</v>
       </c>
@@ -13346,7 +13348,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A396" s="5" t="s">
         <v>79</v>
       </c>
@@ -13378,7 +13380,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A397" s="5" t="s">
         <v>79</v>
       </c>
@@ -13410,7 +13412,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A398" s="5" t="s">
         <v>79</v>
       </c>
@@ -13442,7 +13444,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A399" s="5" t="s">
         <v>79</v>
       </c>
@@ -13474,7 +13476,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A400" s="5" t="s">
         <v>79</v>
       </c>
@@ -13506,7 +13508,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A401" s="5" t="s">
         <v>79</v>
       </c>
@@ -13538,7 +13540,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A402" s="5" t="s">
         <v>79</v>
       </c>
@@ -13570,7 +13572,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A403" s="5" t="s">
         <v>79</v>
       </c>
@@ -13602,7 +13604,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A404" s="5" t="s">
         <v>79</v>
       </c>
@@ -13634,7 +13636,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A405" s="5" t="s">
         <v>79</v>
       </c>
@@ -13666,7 +13668,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A406" s="5" t="s">
         <v>79</v>
       </c>
@@ -13698,7 +13700,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A407" s="5" t="s">
         <v>79</v>
       </c>
@@ -13730,7 +13732,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A408" s="5" t="s">
         <v>79</v>
       </c>
@@ -13762,7 +13764,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A409" s="5" t="s">
         <v>79</v>
       </c>
@@ -13794,7 +13796,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A410" s="5" t="s">
         <v>79</v>
       </c>
@@ -13826,7 +13828,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A411" s="5" t="s">
         <v>79</v>
       </c>
@@ -13858,7 +13860,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A412" s="5" t="s">
         <v>79</v>
       </c>
@@ -13890,7 +13892,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A413" s="5" t="s">
         <v>79</v>
       </c>
@@ -13922,7 +13924,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A414" s="5" t="s">
         <v>79</v>
       </c>
@@ -13954,7 +13956,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A415" s="5" t="s">
         <v>79</v>
       </c>
@@ -13986,7 +13988,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A416" s="5" t="s">
         <v>79</v>
       </c>
@@ -14018,7 +14020,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A417" s="5" t="s">
         <v>79</v>
       </c>
@@ -14050,7 +14052,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A418" s="5" t="s">
         <v>79</v>
       </c>
@@ -14082,7 +14084,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A419" s="5" t="s">
         <v>79</v>
       </c>
@@ -14114,7 +14116,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A420" s="5" t="s">
         <v>79</v>
       </c>
@@ -14146,7 +14148,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A421" s="5" t="s">
         <v>79</v>
       </c>
@@ -14178,7 +14180,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A422" s="5" t="s">
         <v>79</v>
       </c>
@@ -14210,7 +14212,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A423" s="5" t="s">
         <v>79</v>
       </c>
@@ -14242,7 +14244,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A424" s="5" t="s">
         <v>79</v>
       </c>
@@ -14274,7 +14276,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A425" s="5" t="s">
         <v>79</v>
       </c>
@@ -14306,7 +14308,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A426" s="5" t="s">
         <v>79</v>
       </c>
@@ -14338,7 +14340,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A427" s="5" t="s">
         <v>79</v>
       </c>
@@ -14370,7 +14372,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A428" s="5" t="s">
         <v>79</v>
       </c>
@@ -14402,7 +14404,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A429" s="5" t="s">
         <v>79</v>
       </c>
@@ -14434,7 +14436,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A430" s="5" t="s">
         <v>79</v>
       </c>
@@ -14466,7 +14468,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A431" s="5" t="s">
         <v>79</v>
       </c>
@@ -14498,7 +14500,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A432" s="5" t="s">
         <v>79</v>
       </c>
@@ -14530,7 +14532,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A433" s="5" t="s">
         <v>79</v>
       </c>
@@ -14562,7 +14564,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A434" s="5" t="s">
         <v>79</v>
       </c>
@@ -14594,7 +14596,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A435" s="5" t="s">
         <v>79</v>
       </c>
@@ -14626,7 +14628,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A436" s="5" t="s">
         <v>79</v>
       </c>
@@ -14658,7 +14660,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A437" s="5" t="s">
         <v>79</v>
       </c>
@@ -14690,7 +14692,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A438" s="5" t="s">
         <v>79</v>
       </c>
@@ -14722,7 +14724,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A439" s="5" t="s">
         <v>79</v>
       </c>
@@ -14754,7 +14756,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A440" s="5" t="s">
         <v>79</v>
       </c>
@@ -14786,7 +14788,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A441" s="5" t="s">
         <v>79</v>
       </c>
@@ -14818,7 +14820,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A442" s="5" t="s">
         <v>79</v>
       </c>
@@ -14850,7 +14852,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A443" s="5" t="s">
         <v>79</v>
       </c>
@@ -14882,7 +14884,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A444" s="5" t="s">
         <v>79</v>
       </c>
@@ -14914,7 +14916,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A445" s="5" t="s">
         <v>79</v>
       </c>
@@ -14946,7 +14948,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A446" s="5" t="s">
         <v>79</v>
       </c>
@@ -14978,7 +14980,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A447" s="5" t="s">
         <v>79</v>
       </c>
@@ -15010,7 +15012,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A448" s="5" t="s">
         <v>79</v>
       </c>
@@ -15042,7 +15044,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A449" s="5" t="s">
         <v>79</v>
       </c>
@@ -15074,7 +15076,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A450" s="5" t="s">
         <v>79</v>
       </c>
@@ -15106,7 +15108,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A451" s="5" t="s">
         <v>79</v>
       </c>
@@ -15138,7 +15140,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A452" s="5" t="s">
         <v>79</v>
       </c>
@@ -15170,7 +15172,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A453" s="5" t="s">
         <v>79</v>
       </c>
@@ -15202,7 +15204,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A454" s="5" t="s">
         <v>79</v>
       </c>
@@ -15234,7 +15236,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A455" s="5" t="s">
         <v>79</v>
       </c>
@@ -15266,7 +15268,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A456" s="5" t="s">
         <v>79</v>
       </c>
@@ -15298,7 +15300,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A457" s="5" t="s">
         <v>79</v>
       </c>
@@ -15330,7 +15332,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A458" s="5" t="s">
         <v>79</v>
       </c>
@@ -15362,7 +15364,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A459" s="5" t="s">
         <v>79</v>
       </c>
@@ -15394,7 +15396,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A460" s="5" t="s">
         <v>79</v>
       </c>
@@ -15426,7 +15428,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A461" s="5" t="s">
         <v>79</v>
       </c>
@@ -15458,7 +15460,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A462" s="5" t="s">
         <v>79</v>
       </c>
@@ -15490,7 +15492,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A463" s="5" t="s">
         <v>79</v>
       </c>
@@ -15522,7 +15524,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A464" s="5" t="s">
         <v>79</v>
       </c>
@@ -15554,7 +15556,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A465" s="5" t="s">
         <v>79</v>
       </c>
@@ -15586,7 +15588,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A466" s="5" t="s">
         <v>79</v>
       </c>
@@ -15618,7 +15620,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A467" s="5" t="s">
         <v>79</v>
       </c>
@@ -15650,7 +15652,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A468" s="5" t="s">
         <v>79</v>
       </c>
@@ -15682,7 +15684,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A469" s="5" t="s">
         <v>79</v>
       </c>
@@ -15714,7 +15716,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A470" s="5" t="s">
         <v>79</v>
       </c>
@@ -15746,7 +15748,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A471" s="5" t="s">
         <v>79</v>
       </c>
@@ -15778,7 +15780,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A472" s="5" t="s">
         <v>79</v>
       </c>
@@ -15810,7 +15812,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A473" s="5" t="s">
         <v>79</v>
       </c>
@@ -15842,7 +15844,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A474" s="5" t="s">
         <v>79</v>
       </c>
@@ -15874,7 +15876,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A475" s="5" t="s">
         <v>79</v>
       </c>
@@ -15906,7 +15908,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A476" s="5" t="s">
         <v>79</v>
       </c>
@@ -15938,7 +15940,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A477" s="5" t="s">
         <v>79</v>
       </c>
@@ -15970,7 +15972,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A478" s="5" t="s">
         <v>79</v>
       </c>
@@ -16002,7 +16004,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A479" s="5" t="s">
         <v>79</v>
       </c>
@@ -16034,7 +16036,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A480" s="5" t="s">
         <v>79</v>
       </c>
@@ -16066,7 +16068,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A481" s="5" t="s">
         <v>79</v>
       </c>
@@ -16098,7 +16100,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A482" s="5" t="s">
         <v>79</v>
       </c>
@@ -16130,7 +16132,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A483" s="5" t="s">
         <v>79</v>
       </c>
@@ -16162,7 +16164,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A484" s="5" t="s">
         <v>79</v>
       </c>
@@ -16194,7 +16196,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A485" s="5" t="s">
         <v>79</v>
       </c>
@@ -16226,7 +16228,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A486" s="5" t="s">
         <v>79</v>
       </c>
@@ -16258,7 +16260,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A487" s="5" t="s">
         <v>79</v>
       </c>
@@ -16290,7 +16292,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A488" s="5" t="s">
         <v>79</v>
       </c>
@@ -16322,7 +16324,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A489" s="5" t="s">
         <v>79</v>
       </c>
@@ -16354,7 +16356,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A490" s="5" t="s">
         <v>79</v>
       </c>
@@ -16386,7 +16388,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A491" s="5" t="s">
         <v>79</v>
       </c>
@@ -16418,7 +16420,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A492" s="5" t="s">
         <v>79</v>
       </c>
@@ -16450,7 +16452,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A493" s="5" t="s">
         <v>79</v>
       </c>
@@ -16482,7 +16484,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A494" s="5" t="s">
         <v>79</v>
       </c>
@@ -16514,7 +16516,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A495" s="5" t="s">
         <v>79</v>
       </c>
@@ -16546,7 +16548,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A496" s="5" t="s">
         <v>79</v>
       </c>
@@ -16578,7 +16580,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A497" s="5" t="s">
         <v>79</v>
       </c>
@@ -16610,7 +16612,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A498" s="5" t="s">
         <v>79</v>
       </c>
@@ -16642,7 +16644,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A499" s="5" t="s">
         <v>79</v>
       </c>
@@ -16674,7 +16676,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A500" s="5" t="s">
         <v>79</v>
       </c>
@@ -16706,7 +16708,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A501" s="5" t="s">
         <v>79</v>
       </c>
@@ -16738,7 +16740,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A502" s="5" t="s">
         <v>79</v>
       </c>
@@ -16770,7 +16772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A503" s="5" t="s">
         <v>79</v>
       </c>
@@ -16802,7 +16804,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A504" s="5" t="s">
         <v>79</v>
       </c>
@@ -16834,7 +16836,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A505" s="5" t="s">
         <v>79</v>
       </c>
@@ -16866,7 +16868,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A506" s="5" t="s">
         <v>79</v>
       </c>
@@ -16898,7 +16900,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A507" s="5" t="s">
         <v>79</v>
       </c>
@@ -16930,7 +16932,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A508" s="5" t="s">
         <v>79</v>
       </c>
@@ -16962,7 +16964,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A509" s="5" t="s">
         <v>79</v>
       </c>
@@ -16994,7 +16996,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A510" s="5" t="s">
         <v>79</v>
       </c>
@@ -17026,7 +17028,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A511" s="5" t="s">
         <v>79</v>
       </c>
@@ -17058,7 +17060,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A512" s="5" t="s">
         <v>79</v>
       </c>
@@ -17090,7 +17092,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A513" s="5" t="s">
         <v>79</v>
       </c>
@@ -17122,7 +17124,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A514" s="5" t="s">
         <v>79</v>
       </c>
@@ -17154,7 +17156,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A515" s="5" t="s">
         <v>79</v>
       </c>
@@ -17186,7 +17188,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A516" s="5" t="s">
         <v>79</v>
       </c>
@@ -17218,7 +17220,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A517" s="5" t="s">
         <v>79</v>
       </c>
@@ -17250,7 +17252,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A518" s="5" t="s">
         <v>79</v>
       </c>
@@ -17282,7 +17284,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A519" s="5" t="s">
         <v>79</v>
       </c>
@@ -17314,7 +17316,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A520" s="5" t="s">
         <v>79</v>
       </c>
@@ -17346,7 +17348,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A521" s="5" t="s">
         <v>79</v>
       </c>
@@ -17378,7 +17380,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A522" s="5" t="s">
         <v>79</v>
       </c>
@@ -17410,7 +17412,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A523" s="5" t="s">
         <v>79</v>
       </c>
@@ -17442,7 +17444,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A524" s="5" t="s">
         <v>79</v>
       </c>
@@ -17474,7 +17476,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A525" s="5" t="s">
         <v>79</v>
       </c>
@@ -17506,7 +17508,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A526" s="5" t="s">
         <v>79</v>
       </c>
@@ -17538,7 +17540,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A527" s="5" t="s">
         <v>79</v>
       </c>
@@ -17570,7 +17572,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A528" s="5" t="s">
         <v>79</v>
       </c>
@@ -17602,7 +17604,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A529" s="5" t="s">
         <v>79</v>
       </c>
@@ -17634,7 +17636,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A530" s="5" t="s">
         <v>79</v>
       </c>
@@ -17666,7 +17668,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A531" s="5" t="s">
         <v>79</v>
       </c>
@@ -17698,7 +17700,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A532" s="5" t="s">
         <v>79</v>
       </c>
@@ -17730,7 +17732,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A533" s="5" t="s">
         <v>79</v>
       </c>
@@ -17762,7 +17764,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A534" s="5" t="s">
         <v>79</v>
       </c>
@@ -17794,7 +17796,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A535" s="5" t="s">
         <v>79</v>
       </c>
@@ -17826,7 +17828,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A536" s="5" t="s">
         <v>79</v>
       </c>
@@ -17858,7 +17860,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A537" s="5" t="s">
         <v>79</v>
       </c>
@@ -17890,7 +17892,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A538" s="5" t="s">
         <v>79</v>
       </c>
@@ -17922,7 +17924,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A539" s="5" t="s">
         <v>79</v>
       </c>
@@ -17954,7 +17956,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A540" s="5" t="s">
         <v>79</v>
       </c>
@@ -17986,7 +17988,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A541" s="5" t="s">
         <v>79</v>
       </c>
@@ -18018,7 +18020,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A542" s="5" t="s">
         <v>79</v>
       </c>
@@ -18050,7 +18052,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A543" s="5" t="s">
         <v>79</v>
       </c>
@@ -18082,7 +18084,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A544" s="5" t="s">
         <v>79</v>
       </c>
@@ -18114,7 +18116,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A545" s="5" t="s">
         <v>79</v>
       </c>
@@ -18146,7 +18148,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A546" s="5" t="s">
         <v>79</v>
       </c>
@@ -18178,7 +18180,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="547" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A547" s="5" t="s">
         <v>79</v>
       </c>
@@ -18210,7 +18212,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="548" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A548" s="5" t="s">
         <v>79</v>
       </c>
@@ -18242,7 +18244,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="549" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A549" s="5" t="s">
         <v>79</v>
       </c>
@@ -18274,7 +18276,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="550" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A550" s="5" t="s">
         <v>79</v>
       </c>
@@ -18306,7 +18308,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="551" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A551" s="5" t="s">
         <v>79</v>
       </c>
@@ -18338,7 +18340,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="552" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A552" s="5" t="s">
         <v>79</v>
       </c>
@@ -18370,7 +18372,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="553" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A553" s="5" t="s">
         <v>79</v>
       </c>
@@ -18402,7 +18404,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="554" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A554" s="5" t="s">
         <v>79</v>
       </c>
@@ -18434,7 +18436,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="555" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A555" s="5" t="s">
         <v>79</v>
       </c>
@@ -18466,7 +18468,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="556" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A556" s="5" t="s">
         <v>79</v>
       </c>
@@ -18498,7 +18500,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="557" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A557" s="5" t="s">
         <v>79</v>
       </c>
@@ -18530,7 +18532,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="558" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A558" s="5" t="s">
         <v>79</v>
       </c>
@@ -18562,7 +18564,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="559" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A559" s="5" t="s">
         <v>79</v>
       </c>
@@ -18594,7 +18596,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="560" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A560" s="5" t="s">
         <v>79</v>
       </c>
@@ -18626,7 +18628,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="561" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A561" s="5" t="s">
         <v>79</v>
       </c>
@@ -18658,7 +18660,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="562" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A562" s="5" t="s">
         <v>79</v>
       </c>
@@ -18690,7 +18692,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="563" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A563" s="5" t="s">
         <v>79</v>
       </c>
@@ -18722,7 +18724,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="564" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A564" s="5" t="s">
         <v>79</v>
       </c>
@@ -18754,7 +18756,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="565" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A565" s="5" t="s">
         <v>79</v>
       </c>
@@ -18786,7 +18788,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="566" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A566" s="5" t="s">
         <v>79</v>
       </c>
@@ -18818,7 +18820,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="567" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A567" s="5" t="s">
         <v>79</v>
       </c>
@@ -18850,7 +18852,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="568" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A568" s="5" t="s">
         <v>79</v>
       </c>
@@ -18882,7 +18884,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="569" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A569" s="5" t="s">
         <v>79</v>
       </c>
@@ -18914,7 +18916,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="570" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A570" s="5" t="s">
         <v>79</v>
       </c>
@@ -18946,7 +18948,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="571" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A571" s="5" t="s">
         <v>79</v>
       </c>
@@ -18978,7 +18980,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="572" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A572" s="5" t="s">
         <v>79</v>
       </c>
@@ -19010,7 +19012,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="573" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A573" s="5" t="s">
         <v>79</v>
       </c>
@@ -19042,7 +19044,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="574" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A574" s="5" t="s">
         <v>79</v>
       </c>
@@ -19074,7 +19076,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="575" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A575" s="5" t="s">
         <v>79</v>
       </c>
@@ -19106,7 +19108,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="576" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A576" s="5" t="s">
         <v>79</v>
       </c>
@@ -19138,7 +19140,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="577" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A577" s="5" t="s">
         <v>79</v>
       </c>
@@ -19170,7 +19172,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="578" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A578" s="5" t="s">
         <v>79</v>
       </c>
@@ -19202,7 +19204,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="579" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A579" s="5" t="s">
         <v>79</v>
       </c>
@@ -19234,7 +19236,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="580" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A580" s="5" t="s">
         <v>79</v>
       </c>
@@ -19266,7 +19268,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="581" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A581" s="5" t="s">
         <v>79</v>
       </c>
@@ -19298,7 +19300,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="582" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A582" s="5" t="s">
         <v>79</v>
       </c>
@@ -19330,7 +19332,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="583" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A583" s="5" t="s">
         <v>79</v>
       </c>
@@ -19362,7 +19364,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="584" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A584" s="5" t="s">
         <v>79</v>
       </c>
@@ -19394,7 +19396,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="585" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A585" s="5" t="s">
         <v>79</v>
       </c>
@@ -19426,7 +19428,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="586" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A586" s="5" t="s">
         <v>79</v>
       </c>
@@ -19458,7 +19460,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="587" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A587" s="5" t="s">
         <v>79</v>
       </c>
@@ -19490,7 +19492,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="588" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A588" s="5" t="s">
         <v>79</v>
       </c>
@@ -19522,7 +19524,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="589" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A589" s="5" t="s">
         <v>79</v>
       </c>
@@ -19554,7 +19556,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="590" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A590" s="5" t="s">
         <v>79</v>
       </c>
@@ -19586,7 +19588,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="591" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A591" s="5" t="s">
         <v>79</v>
       </c>
@@ -19618,7 +19620,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="592" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A592" s="5" t="s">
         <v>79</v>
       </c>
@@ -19650,7 +19652,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="593" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A593" s="5" t="s">
         <v>79</v>
       </c>
@@ -19682,7 +19684,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="594" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A594" s="5" t="s">
         <v>79</v>
       </c>
@@ -19714,7 +19716,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="595" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A595" s="5" t="s">
         <v>79</v>
       </c>
